--- a/case_study_1_enzyme_kinetics/yqjm_activity.xlsx
+++ b/case_study_1_enzyme_kinetics/yqjm_activity.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/kaushik_venkatesan_mail_utoronto_ca/Documents/Research/PhD_UofT/Data/automated_scaledown/case_study_1_enzyme_kinetics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{17953BE8-8B49-4967-B372-5C6B1CDAFA27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{23E76F5E-71A3-46D2-A4F7-B5FE510AE376}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{17953BE8-8B49-4967-B372-5C6B1CDAFA27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1980AE84-3E19-4296-A7EB-FCD10C310C4D}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{F43E59C5-7C4D-4B99-A4CB-0CB5D5DF583E}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{F43E59C5-7C4D-4B99-A4CB-0CB5D5DF583E}"/>
   </bookViews>
   <sheets>
     <sheet name="Automated_Assay" sheetId="1" r:id="rId1"/>
     <sheet name="Manual_Assay" sheetId="2" r:id="rId2"/>
-    <sheet name="Salt_Gradient" sheetId="3" r:id="rId3"/>
-    <sheet name="pH_Gradient" sheetId="4" r:id="rId4"/>
+    <sheet name="pH_Gradient" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,31 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">0 mM </t>
-  </si>
-  <si>
-    <t>10 mM NaCl</t>
-  </si>
-  <si>
-    <t>100 mM NaCl</t>
-  </si>
-  <si>
-    <t>1000 mM NaCl</t>
-  </si>
-  <si>
-    <t>10 mM KCl</t>
-  </si>
-  <si>
-    <t>100 mM KCl</t>
-  </si>
-  <si>
-    <t>1000 mM KCl</t>
-  </si>
-  <si>
-    <t>Salt Gradient</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>pH Gradient</t>
   </si>
@@ -505,30 +480,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
@@ -665,30 +640,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -809,154 +784,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6463E75-B0AB-4B4B-B0F0-D5552866408E}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="16.578125" customWidth="1"/>
-    <col min="2" max="4" width="27.62890625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.230395695255593</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.1862954911245707</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.1951155319507747</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.0804550012101104</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.1025051032756203</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.1421952869935434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.4685367975631283</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.371516348474872</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.424436593432103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.76734355187983416</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.71442330692260259</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.72765336816190862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.0980950828625209</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.111325144101827</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.1157351645149287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.3406462055831554</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.2524457973211058</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.2303956952555957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.83790387848947334</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.82026379683706296</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.789393653945344</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE44634-3FE1-481E-8B08-D8A6D526A02A}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -968,27 +800,27 @@
     <row r="1" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.3" x14ac:dyDescent="0.55000000000000004">
